--- a/uploads/Tableau_de_synthese_GILLET_Thomas.xlsx
+++ b/uploads/Tableau_de_synthese_GILLET_Thomas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lyonortasso-my.sharepoint.com/personal/t_gillet_lyon_ort_asso_fr/Documents/2OLEN/portfolio/index/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{D70AB2A8-6F63-4CA4-B8AE-4A8C696E2E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A62E3A1-B8C8-4F7E-9A1D-744FD3F9A037}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{D70AB2A8-6F63-4CA4-B8AE-4A8C696E2E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DBBEA17-B413-4DC3-B6F5-685861536892}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -174,16 +174,25 @@
     <t>Blocage d’une liste d’adresses IP sur le serveur apache</t>
   </si>
   <si>
-    <t>07-fev-2021</t>
-  </si>
-  <si>
     <t>Création d'un portfolio en html</t>
   </si>
   <si>
-    <t>14-dec-2020</t>
+    <t>Mise en œuvre d’une sauvegarde sur un NAS</t>
   </si>
   <si>
-    <t>Mise en œuvre d’une sauvegarde sur un NAS</t>
+    <t>du 10/01/2022 au 18/02/2022</t>
+  </si>
+  <si>
+    <t>du 25/05/2021 au 06/07/2021</t>
+  </si>
+  <si>
+    <t>du 28/10/2019 au 06/12/2019</t>
+  </si>
+  <si>
+    <t>année 2021</t>
+  </si>
+  <si>
+    <t>xx/09/2021</t>
   </si>
 </sst>
 </file>
@@ -524,7 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -604,10 +613,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -651,12 +660,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -757,6 +760,9 @@
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>année 2021</c:v>
+                  </c:pt>
                   <c:pt idx="1">
                     <c:v>x</c:v>
                   </c:pt>
@@ -778,7 +784,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>26-nov-20</c:v>
+                    <c:v>26/11/2020</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>x</c:v>
@@ -793,83 +799,34 @@
                     <c:v>x</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>x</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>x</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
                     <c:v>x</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>02-mars-22</c:v>
+                    <c:v>xx/09/2021</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>x</c:v>
                   </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>x</c:v>
                   </c:pt>
                   <c:pt idx="5">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>x</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>14-dec-2020</c:v>
+                    <c:v>08/03/2021</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>x</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>x</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>x</c:v>
-                  </c:pt>
                   <c:pt idx="2">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>x</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
                     <c:v>x</c:v>
                   </c:pt>
                   <c:pt idx="5">
@@ -878,7 +835,71 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>07-fev-2021</c:v>
+                    <c:v>02/03/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>11/01/2021</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>x</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>14/12/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>x</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>09/11/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>x</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>14/10/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>x</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>07/02/2021</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>x</c:v>
@@ -1243,6 +1264,9 @@
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>année 2021</c:v>
+                  </c:pt>
                   <c:pt idx="1">
                     <c:v>x</c:v>
                   </c:pt>
@@ -1264,7 +1288,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>26-nov-20</c:v>
+                    <c:v>26/11/2020</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>x</c:v>
@@ -1279,83 +1303,34 @@
                     <c:v>x</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>x</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>x</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
                     <c:v>x</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>02-mars-22</c:v>
+                    <c:v>xx/09/2021</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>x</c:v>
                   </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>x</c:v>
                   </c:pt>
                   <c:pt idx="5">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>x</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>14-dec-2020</c:v>
+                    <c:v>08/03/2021</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>x</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>x</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>x</c:v>
-                  </c:pt>
                   <c:pt idx="2">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>x</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
                     <c:v>x</c:v>
                   </c:pt>
                   <c:pt idx="5">
@@ -1364,7 +1339,71 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>07-fev-2021</c:v>
+                    <c:v>02/03/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>11/01/2021</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>x</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>14/12/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>x</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>09/11/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>x</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>14/10/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>x</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>07/02/2021</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>x</c:v>
@@ -1729,6 +1768,9 @@
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>année 2021</c:v>
+                  </c:pt>
                   <c:pt idx="1">
                     <c:v>x</c:v>
                   </c:pt>
@@ -1750,7 +1792,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>26-nov-20</c:v>
+                    <c:v>26/11/2020</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>x</c:v>
@@ -1765,83 +1807,34 @@
                     <c:v>x</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>x</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>x</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
                     <c:v>x</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>02-mars-22</c:v>
+                    <c:v>xx/09/2021</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>x</c:v>
                   </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>x</c:v>
                   </c:pt>
                   <c:pt idx="5">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>x</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>14-dec-2020</c:v>
+                    <c:v>08/03/2021</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>x</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>x</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>x</c:v>
-                  </c:pt>
                   <c:pt idx="2">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>x</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>x</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
                     <c:v>x</c:v>
                   </c:pt>
                   <c:pt idx="5">
@@ -1850,7 +1843,71 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>07-fev-2021</c:v>
+                    <c:v>02/03/2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>11/01/2021</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>x</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>14/12/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>x</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>09/11/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>x</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>14/10/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>x</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>x</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>07/02/2021</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>x</c:v>
@@ -4221,14 +4278,14 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="84" zoomScaleNormal="55" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScale="84" zoomScaleNormal="55" zoomScalePageLayoutView="84" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
     <col min="9" max="43" width="10.88671875" customWidth="1"/>
     <col min="44" max="16384" width="10.77734375" style="1"/>
@@ -4429,8 +4486,8 @@
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>42</v>
+      <c r="B8" s="28">
+        <v>44234</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>26</v>
@@ -4490,7 +4547,9 @@
       <c r="A9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="28">
+        <v>44118</v>
+      </c>
       <c r="C9" s="19" t="s">
         <v>26</v>
       </c>
@@ -4545,7 +4604,9 @@
       <c r="A10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="28">
+        <v>44144</v>
+      </c>
       <c r="C10" s="19" t="s">
         <v>26</v>
       </c>
@@ -4600,8 +4661,8 @@
       <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>44</v>
+      <c r="B11" s="28">
+        <v>44179</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>26</v>
@@ -4653,7 +4714,9 @@
       <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="28">
+        <v>44207</v>
+      </c>
       <c r="C12" s="19" t="s">
         <v>26</v>
       </c>
@@ -4702,9 +4765,9 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="43">
+        <v>43</v>
+      </c>
+      <c r="B13" s="28">
         <v>44622</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -4755,7 +4818,9 @@
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="28">
+        <v>44263</v>
+      </c>
       <c r="C14" s="19" t="s">
         <v>26</v>
       </c>
@@ -4808,7 +4873,9 @@
       <c r="A15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="C15" s="19" t="s">
         <v>26</v>
       </c>
@@ -4861,9 +4928,9 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="27">
+        <v>42</v>
+      </c>
+      <c r="B16" s="28">
         <v>44161</v>
       </c>
       <c r="C16" s="19" t="s">
@@ -4922,7 +4989,9 @@
       <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="C17" s="19" t="s">
         <v>26</v>
       </c>
@@ -5028,8 +5097,8 @@
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="44">
-        <v>44383</v>
+      <c r="B19" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -5081,7 +5150,9 @@
       <c r="A20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="s">
@@ -5130,7 +5201,9 @@
       <c r="A21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19" t="s">
@@ -5453,7 +5526,9 @@
       <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -5502,7 +5577,9 @@
       <c r="A29" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -5551,7 +5628,9 @@
       <c r="A30" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -5600,8 +5679,8 @@
       <c r="A31" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="44">
-        <v>44610</v>
+      <c r="B31" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19" t="s">
@@ -5937,7 +6016,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>